--- a/data.xlsx
+++ b/data.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
